--- a/data/ENVS2018 kioloa biometric 2025.xlsx
+++ b/data/ENVS2018 kioloa biometric 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/ENVS2018-environmental-science-field-school/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="14_{C5B6C608-8C60-4A80-BEE2-4B44E777E71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1261B855-C45D-4AC8-B077-B2FA3A3827EF}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="14_{C5B6C608-8C60-4A80-BEE2-4B44E777E71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF9D922-1A00-412E-A803-6C422856EA9F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{30CB7CED-39AE-45A1-B0DE-C213CBD80A24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{30CB7CED-39AE-45A1-B0DE-C213CBD80A24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>team</t>
   </si>
@@ -104,91 +104,40 @@
     <t>H</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other=vines. Most of the grasses were sedges. Casuarina coastal woodland. Good mix of ground, and over storey. Limited mid storey made up of guvenile Casuarina trees. </t>
-  </si>
-  <si>
-    <t>Last 35m of area was not due to mud, but was mostly sedge</t>
-  </si>
-  <si>
-    <t>Forested flat area near coast with little midstory</t>
-  </si>
-  <si>
-    <t>Paddock - cow poo littered the ground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paddock, muddy with bovine grazing </t>
-  </si>
-  <si>
-    <t>This was in the paddock.</t>
-  </si>
-  <si>
-    <t>site attended - all grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most grasses were sedges. Site had lots of tall, skinny trees and grasses/sedges on the ground cover. Not much mid storey shrubs. Possibly an old tree logging site? </t>
-  </si>
-  <si>
-    <t>Rainforest (ish) - by the river</t>
-  </si>
-  <si>
-    <t>Other species found were vines and some trees</t>
-  </si>
-  <si>
-    <t>forest area with two creeks seperated by a ridge</t>
-  </si>
-  <si>
-    <t>Uphill - very dense, difficult to get through, many leeches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very overgrown. Limited to 20m  x 20m transect. Dense midstorey and overstorey. Plenty of ground cover. </t>
-  </si>
-  <si>
-    <t>We could only go 25m because the veg ws too dense afterwards</t>
-  </si>
-  <si>
-    <t>Grass %</t>
-  </si>
-  <si>
-    <t>Shrub %</t>
-  </si>
-  <si>
-    <t>Forb %</t>
-  </si>
-  <si>
-    <t>Litter %</t>
-  </si>
-  <si>
-    <t>Rock %</t>
-  </si>
-  <si>
-    <t>Bare %</t>
-  </si>
-  <si>
-    <t>Other %</t>
-  </si>
-  <si>
-    <t>Sedge %</t>
-  </si>
-  <si>
-    <t>Fern %</t>
-  </si>
-  <si>
-    <t>Cryptogam %</t>
-  </si>
-  <si>
-    <t>Tree %</t>
-  </si>
-  <si>
-    <t>Other + fern + sedge + tree %</t>
-  </si>
-  <si>
     <t>Hollow</t>
   </si>
   <si>
-    <t>Not done this year</t>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Shrub</t>
+  </si>
+  <si>
+    <t>Forb</t>
+  </si>
+  <si>
+    <t>Litter</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Bare</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Sedge</t>
+  </si>
+  <si>
+    <t>Fern</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Cryptogam</t>
   </si>
 </sst>
 </file>
@@ -575,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF31845-6886-443D-ADA4-BA23797E7EC8}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,64 +543,58 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -682,32 +625,29 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
+      <c r="K2">
+        <v>0.06</v>
       </c>
       <c r="N2">
         <v>0.06</v>
       </c>
       <c r="O2">
-        <v>0.06</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="P2">
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="Q2">
         <v>0.29600000000000004</v>
       </c>
-      <c r="R2" s="1">
+      <c r="Q2" s="1">
         <v>0.37760000000000005</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
       <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -736,40 +676,34 @@
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1">
-        <v>1.3333333333333334E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="P3" s="1">
-        <v>6.7000000000000002E-3</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.14169999999999999</v>
+        <v>0.1484</v>
       </c>
       <c r="R3" s="1">
-        <v>0.1484</v>
+        <v>149</v>
       </c>
       <c r="S3" s="1">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
         <v>72.17</v>
       </c>
-      <c r="V3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -798,34 +732,31 @@
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>0.25333333333333335</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="O4">
-        <v>0.25333333333333335</v>
+        <v>0.19666666666666666</v>
       </c>
       <c r="P4">
-        <v>0.19666666666666666</v>
-      </c>
-      <c r="Q4">
         <v>0.42</v>
       </c>
-      <c r="R4" s="1">
+      <c r="Q4" s="1">
         <v>0.6166666666666667</v>
       </c>
+      <c r="R4">
+        <v>38</v>
+      </c>
       <c r="S4">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="T4">
-        <v>15</v>
-      </c>
-      <c r="U4">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -854,40 +785,34 @@
         <v>9.8039215686274508E-3</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.8039215686274508E-3</v>
       </c>
       <c r="K5">
         <v>0.33333333333333298</v>
       </c>
-      <c r="M5">
-        <v>9.8039215686274508E-3</v>
+      <c r="L5">
+        <v>0.33333333333333298</v>
       </c>
       <c r="O5">
-        <v>0.33333333333333331</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="P5">
-        <v>7.3200000000000001E-2</v>
-      </c>
-      <c r="Q5">
         <v>0.27899999999999997</v>
       </c>
-      <c r="R5" s="1">
+      <c r="Q5" s="1">
         <v>0.35220000000000001</v>
       </c>
+      <c r="R5">
+        <v>85</v>
+      </c>
       <c r="S5">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="T5">
-        <v>8</v>
-      </c>
-      <c r="U5">
         <v>250</v>
       </c>
-      <c r="V5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -916,34 +841,31 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>0.04</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="O6">
-        <v>0.04</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="P6">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="Q6">
         <v>0.15166666666666667</v>
       </c>
-      <c r="R6" s="1">
+      <c r="Q6" s="1">
         <v>0.21833333333333332</v>
       </c>
+      <c r="R6">
+        <v>12</v>
+      </c>
       <c r="S6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -974,32 +896,29 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="K7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="P7">
-        <v>4.7300000000000002E-2</v>
-      </c>
-      <c r="Q7">
         <v>0.66830000000000001</v>
       </c>
-      <c r="R7" s="1">
+      <c r="Q7" s="1">
         <v>0.71560000000000001</v>
       </c>
+      <c r="R7">
+        <v>19</v>
+      </c>
       <c r="S7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T7">
-        <v>14</v>
-      </c>
-      <c r="U7">
         <v>42.5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1030,38 +949,32 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8">
+        <v>2.66666666666667E-2</v>
+      </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
+      <c r="M8" s="1"/>
       <c r="N8" s="1">
         <v>2.66666666666667E-2</v>
       </c>
       <c r="O8" s="1">
-        <v>2.6666666666666668E-2</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="P8" s="1">
-        <v>6.6666666666666693E-2</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="R8" s="1">
         <v>0.67166666666666675</v>
       </c>
-      <c r="S8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1">
+        <v>15</v>
+      </c>
       <c r="T8" s="1">
-        <v>15</v>
-      </c>
-      <c r="U8" s="1">
         <v>110</v>
       </c>
-      <c r="V8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1090,21 +1003,21 @@
         <v>1.3333333333333334E-2</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="O9">
-        <v>1.3333333333333334E-2</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
@@ -1113,14 +1026,8 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1151,11 +1058,11 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10">
+        <v>0</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
+      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1">
         <v>0</v>
@@ -1166,21 +1073,15 @@
       <c r="Q10" s="1">
         <v>0</v>
       </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
       <c r="T10" s="1">
         <v>0</v>
       </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1211,11 +1112,11 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11">
+        <v>0</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
+      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
         <v>0</v>
@@ -1235,14 +1136,8 @@
       <c r="T11" s="1">
         <v>0</v>
       </c>
-      <c r="U11" s="1">
-        <v>0</v>
-      </c>
-      <c r="V11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1271,37 +1166,34 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0.06</v>
       </c>
-      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1">
-        <v>0.06</v>
+        <v>6.1666666666666668E-2</v>
       </c>
       <c r="P12" s="1">
-        <v>6.1666666666666668E-2</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.21666666666666667</v>
+        <v>0.27833333333333338</v>
       </c>
       <c r="R12" s="1">
-        <v>0.27833333333333338</v>
+        <v>73</v>
       </c>
       <c r="S12" s="1">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="T12" s="1">
-        <v>11</v>
-      </c>
-      <c r="U12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1332,11 +1224,11 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13">
+        <v>0</v>
+      </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
+      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1">
         <v>0</v>
@@ -1356,14 +1248,8 @@
       <c r="T13" s="1">
         <v>0</v>
       </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1394,38 +1280,32 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14">
+        <v>0</v>
+      </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
+      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="P14" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.22600000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>0.27100000000000002</v>
+        <v>73</v>
       </c>
       <c r="S14" s="1">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="T14" s="1">
-        <v>17</v>
-      </c>
-      <c r="U14" s="1">
         <v>6.2</v>
       </c>
-      <c r="V14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1442,7 +1322,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15">
+        <v>0</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1452,12 +1334,8 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1486,37 +1364,31 @@
         <v>0.14666666666666667</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>0.06</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="O16">
-        <v>0.06</v>
+        <v>9.6666666666666665E-2</v>
       </c>
       <c r="P16">
-        <v>9.6666666666666665E-2</v>
-      </c>
-      <c r="Q16">
         <v>0.73666666666666669</v>
       </c>
-      <c r="R16" s="1">
+      <c r="Q16" s="1">
         <v>0.83333333333333348</v>
       </c>
+      <c r="R16">
+        <v>46</v>
+      </c>
       <c r="S16">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>5</v>
-      </c>
-      <c r="U16">
         <v>60</v>
       </c>
-      <c r="V16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1547,32 +1419,29 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="K17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="P17">
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="Q17">
         <v>0.373</v>
       </c>
-      <c r="R17" s="1">
+      <c r="Q17" s="1">
         <v>0.39899999999999997</v>
       </c>
+      <c r="R17">
+        <v>12</v>
+      </c>
       <c r="S17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1601,34 +1470,31 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="J18">
+        <v>7.3333333333333334E-2</v>
+      </c>
+      <c r="K18">
         <v>0.22666666666666666</v>
       </c>
-      <c r="M18">
-        <v>7.3333333333333334E-2</v>
-      </c>
       <c r="O18">
-        <v>0.22666666666666666</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="P18">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="Q18">
         <v>0.5126666666666666</v>
       </c>
-      <c r="R18" s="1">
+      <c r="Q18" s="1">
         <v>0.71966666666666668</v>
       </c>
+      <c r="R18">
+        <v>48</v>
+      </c>
       <c r="S18">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="T18">
-        <v>4</v>
-      </c>
-      <c r="U18">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1657,34 +1523,31 @@
         <v>5.3333333333333337E-2</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>9.3333333333333338E-2</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="O19">
-        <v>9.3333333333333338E-2</v>
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="P19">
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="Q19">
         <v>0.54830000000000001</v>
       </c>
-      <c r="R19" s="1">
+      <c r="Q19" s="1">
         <v>0.59499999999999997</v>
       </c>
+      <c r="R19">
+        <v>57</v>
+      </c>
       <c r="S19">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="T19">
-        <v>6</v>
-      </c>
-      <c r="U19">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1713,40 +1576,34 @@
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>0.12666666666666668</v>
-      </c>
-      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.49333333333333368</v>
+      </c>
+      <c r="L20" s="1">
         <v>0.08</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>0.28666666666666701</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1">
-        <v>0.49333333333333335</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="P20" s="1">
-        <v>9.6000000000000002E-2</v>
+        <v>0.66299999999999992</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.66299999999999992</v>
-      </c>
-      <c r="R20" s="1">
         <v>0.7589999999999999</v>
       </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1">
+      <c r="R20" s="1"/>
+      <c r="S20" s="1">
         <v>18</v>
       </c>
-      <c r="U20" s="1"/>
-      <c r="V20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1775,42 +1632,36 @@
         <v>0.06</v>
       </c>
       <c r="J21" s="1">
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.31333333333333335</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1">
         <v>0.2</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
       </c>
       <c r="N21" s="1">
         <v>8.6666666666666697E-2</v>
       </c>
       <c r="O21" s="1">
-        <v>0.31333333333333335</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="P21" s="1">
-        <v>0.32700000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="R21" s="1">
         <v>0.747</v>
       </c>
-      <c r="S21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1">
+        <v>10</v>
+      </c>
       <c r="T21" s="1">
-        <v>10</v>
-      </c>
-      <c r="U21" s="1">
         <v>135</v>
       </c>
-      <c r="V21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1839,37 +1690,31 @@
         <v>0</v>
       </c>
       <c r="J22">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K22">
         <v>9.3333333333333338E-2</v>
       </c>
-      <c r="M22">
-        <v>6.6666666666666671E-3</v>
-      </c>
       <c r="O22">
-        <v>9.3333333333333338E-2</v>
+        <v>0.11333333333333334</v>
       </c>
       <c r="P22">
-        <v>0.11333333333333334</v>
-      </c>
-      <c r="Q22">
         <v>0.46</v>
       </c>
-      <c r="R22" s="1">
+      <c r="Q22" s="1">
         <v>0.57333333333333336</v>
       </c>
+      <c r="R22">
+        <v>46</v>
+      </c>
       <c r="S22">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="T22">
-        <v>24</v>
-      </c>
-      <c r="U22">
         <v>104</v>
       </c>
-      <c r="V22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1898,37 +1743,34 @@
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K23">
+        <v>6.6666666666666693E-2</v>
+      </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="1">
-        <v>6.6666666666666671E-3</v>
-      </c>
+      <c r="M23" s="1"/>
       <c r="N23" s="1">
         <v>6.6666666666666693E-2</v>
       </c>
       <c r="O23" s="1">
-        <v>6.6666666666666666E-2</v>
+        <v>0.29670000000000002</v>
       </c>
       <c r="P23" s="1">
-        <v>0.29670000000000002</v>
+        <v>0.33829999999999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.33829999999999999</v>
-      </c>
-      <c r="R23" s="1">
         <v>0.63500000000000001</v>
       </c>
-      <c r="S23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1">
+        <v>3</v>
+      </c>
       <c r="T23" s="1">
-        <v>3</v>
-      </c>
-      <c r="U23" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1957,40 +1799,34 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>0.23333333333333334</v>
       </c>
-      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
+      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1">
-        <v>0.23333333333333334</v>
+        <v>0.37219999999999998</v>
       </c>
       <c r="P24" s="1">
-        <v>0.37219999999999998</v>
+        <v>8.8900000000000007E-2</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.8900000000000007E-2</v>
+        <v>0.46110000000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>0.46110000000000001</v>
+        <v>111</v>
       </c>
       <c r="S24" s="1">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="T24" s="1">
-        <v>4</v>
-      </c>
-      <c r="U24" s="1">
         <v>24.6</v>
       </c>
-      <c r="V24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2019,38 +1855,32 @@
         <v>1.282051282051282E-2</v>
       </c>
       <c r="J25">
+        <v>1.282051282051282E-2</v>
+      </c>
+      <c r="K25">
         <v>0.12820512820512819</v>
       </c>
-      <c r="M25">
-        <v>1.282051282051282E-2</v>
-      </c>
       <c r="O25">
-        <v>0.12820512820512819</v>
+        <v>0.156</v>
       </c>
       <c r="P25">
-        <v>0.156</v>
-      </c>
-      <c r="Q25">
         <v>0.32299999999999995</v>
       </c>
-      <c r="R25" s="1">
+      <c r="Q25" s="1">
         <v>0.47899999999999998</v>
       </c>
+      <c r="R25">
+        <v>23</v>
+      </c>
       <c r="S25">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="T25">
-        <v>9</v>
-      </c>
-      <c r="U25">
         <v>43</v>
       </c>
-      <c r="V25" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T25">
     <sortCondition ref="C1:C25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ENVS2018 kioloa biometric 2025.xlsx
+++ b/data/ENVS2018 kioloa biometric 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/ENVS2018-environmental-science-field-school/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="14_{C5B6C608-8C60-4A80-BEE2-4B44E777E71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF9D922-1A00-412E-A803-6C422856EA9F}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="14_{C5B6C608-8C60-4A80-BEE2-4B44E777E71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11354461-B3ED-43D0-AA62-D2B56745803D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{30CB7CED-39AE-45A1-B0DE-C213CBD80A24}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>team</t>
   </si>
@@ -62,82 +62,82 @@
     <t>D</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Midstory</t>
+  </si>
+  <si>
+    <t>Overstory</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>CWD</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Hollow</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Shrub</t>
+  </si>
+  <si>
+    <t>Forb</t>
+  </si>
+  <si>
+    <t>Litter</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Bare</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Sedge</t>
+  </si>
+  <si>
+    <t>Fern</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Cryptogam</t>
+  </si>
+  <si>
+    <t>CBF</t>
+  </si>
+  <si>
+    <t>RFG</t>
+  </si>
+  <si>
     <t>CAS</t>
   </si>
   <si>
-    <t>CEF</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>LSF</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>USF</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Midstory</t>
-  </si>
-  <si>
-    <t>Overstory</t>
-  </si>
-  <si>
-    <t>Cover</t>
-  </si>
-  <si>
-    <t>Trees</t>
-  </si>
-  <si>
-    <t>CWD</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Hollow</t>
-  </si>
-  <si>
-    <t>Grass</t>
-  </si>
-  <si>
-    <t>Shrub</t>
-  </si>
-  <si>
-    <t>Forb</t>
-  </si>
-  <si>
-    <t>Litter</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>Bare</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Sedge</t>
-  </si>
-  <si>
-    <t>Fern</t>
-  </si>
-  <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>Cryptogam</t>
+    <t>SGBF-L</t>
+  </si>
+  <si>
+    <t>SGBF-U</t>
   </si>
 </sst>
 </file>
@@ -205,6 +205,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,72 +530,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF31845-6886-443D-ADA4-BA23797E7EC8}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:T25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -599,7 +606,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -652,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -708,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -761,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -817,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -870,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -923,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -976,10 +983,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1032,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -1086,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1142,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -1198,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -1254,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -1308,9 +1315,6 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -1337,10 +1341,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1393,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1446,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1499,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1552,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>19</v>
@@ -1608,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
@@ -1663,10 +1667,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1719,7 +1723,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
@@ -1775,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -1831,7 +1835,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>24</v>
